--- a/TableEtat.xlsx
+++ b/TableEtat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca4be0296f990297/Documents/Etudes/HEIG/2eme/Semestre3/SYL/Laboratoires/SYL_Labo4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{07E1F149-5369-4708-B0BF-779967282CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6A55D0-EA76-449F-94EB-A34DD4D16C68}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{07E1F149-5369-4708-B0BF-779967282CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E100E876-71F8-4A5D-A216-5CA2AD9155BC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EEE2296-4C3C-4797-896E-A9F0270D27D2}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7EEE2296-4C3C-4797-896E-A9F0270D27D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>0010010</t>
   </si>
   <si>
-    <t>Etat futur (ready,color1,color2,cmpt_done)</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>xxx1</t>
+  </si>
+  <si>
+    <t>Etat futur (ready,color1,color0,cmpt_done)</t>
   </si>
 </sst>
 </file>
@@ -239,6 +239,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FBBB43-88E7-4F1B-9133-23BBDCBCFDED}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +561,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -573,31 +577,31 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>15</v>
@@ -614,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -655,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -696,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
@@ -819,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
